--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_4_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_4_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.39000000000022</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>8.670598690141418e-07</v>
+        <v>0.0002068047250504135</v>
       </c>
       <c r="H2" t="n">
-        <v>7.397456190748418e-06</v>
+        <v>0.001000294255872531</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.782089542743838</v>
+        <v>4.65237144908373</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.8274074231623896, 8.736771662325287]</t>
+          <t>[1.6967320139249722, 7.608010884242487]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.0001380805420472253</v>
+        <v>0.002105026404423338</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001380805420472253</v>
+        <v>0.002105026404423338</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.8176317216550011</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2830528555201557, -0.3522105877898465]</t>
+          <t>[-1.534631846798618, -0.3018947895341544]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006096331260521115</v>
+        <v>0.003590793943548665</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001219266252104223</v>
+        <v>0.003590793943548665</v>
       </c>
       <c r="S2" t="n">
-        <v>13.99457787127835</v>
+        <v>13.73632025622117</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.48687826663554, 15.502277475921161]</t>
+          <t>[12.169740125773828, 15.302900386668519]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.043743743743772</v>
+        <v>3.396436436436467</v>
       </c>
       <c r="X2" t="n">
-        <v>1.311151151151163</v>
+        <v>1.116636636636648</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.776336336336381</v>
+        <v>5.676236236236286</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.17000000000018</v>
+        <v>23.79000000000028</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.933613514859545e-07</v>
+        <v>1.03526522280406e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>5.671138977684602e-06</v>
+        <v>0.0002408790199947342</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.69229657987681</v>
+        <v>4.861689453340309</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.0053496086022022, 8.379243551151419]</t>
+          <t>[2.534248141882461, 7.189130764798156]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>3.731415097041335e-05</v>
+        <v>4.766166157366136e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>7.46283019408267e-05</v>
+        <v>9.532332314732272e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.6289474781961548</v>
+        <v>1.478026573760963</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-1.0943686120613094, -0.16352634433100022]</t>
+          <t>[0.9119738433844233, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.008187985076215876</v>
+        <v>4.207644115350462e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0.008187985076215876</v>
+        <v>8.415288230700924e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>13.67175598426423</v>
+        <v>13.06188950652026</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[12.271733347565004, 15.071778620963457]</t>
+          <t>[11.672658469611907, 14.451120543428612]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2.319319319319337</v>
+        <v>18.19375375375397</v>
       </c>
       <c r="X3" t="n">
-        <v>0.6030230230230273</v>
+        <v>16.0505105105107</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.035615615615647</v>
+        <v>20.33699699699724</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_4_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_4_sawtooth_0.1_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.24000000000019</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002068047250504135</v>
+        <v>0.0108879466682329</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001000294255872531</v>
+        <v>0.03449082976905794</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>4.65237144908373</v>
+        <v>3.651269312440493</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.6967320139249722, 7.608010884242487]</t>
+          <t>[0.835241122600336, 6.46729750228065]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002105026404423338</v>
+        <v>0.01116666431039692</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002105026404423338</v>
+        <v>0.01116666431039692</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-1.685579241565695</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.534631846798618, -0.3018947895341544]</t>
+          <t>[-2.7296320553713125, -0.6415264277600778]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.003590793943548665</v>
+        <v>0.001615963230421125</v>
       </c>
       <c r="R2" t="n">
-        <v>0.003590793943548665</v>
+        <v>0.001615963230421125</v>
       </c>
       <c r="S2" t="n">
-        <v>13.73632025622117</v>
+        <v>14.10100820411633</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[12.169740125773828, 15.302900386668519]</t>
+          <t>[12.421609123621653, 15.780407284610998]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3.396436436436467</v>
+        <v>6.111151151151184</v>
       </c>
       <c r="X2" t="n">
-        <v>1.116636636636648</v>
+        <v>2.325885885885897</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.676236236236286</v>
+        <v>9.896416416416471</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.79000000000028</v>
+        <v>23.08000000000017</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.03526522280406e-05</v>
+        <v>9.737852291191729e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002408790199947342</v>
+        <v>3.032058552552699e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>4.861689453340309</v>
+        <v>5.900933025785888</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.534248141882461, 7.189130764798156]</t>
+          <t>[3.311921135968861, 8.489944915602916]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.766166157366136e-05</v>
+        <v>9.414346378910921e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.532332314732272e-05</v>
+        <v>1.882869275782184e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.478026573760963</v>
+        <v>-1.245316006828387</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[0.9119738433844233, 2.0440793041375027]</t>
+          <t>[-1.7484739893853103, -0.7421580242714629]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.207644115350462e-07</v>
+        <v>1.57068026807039e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>8.415288230700924e-07</v>
+        <v>3.14136053614078e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>13.06188950652026</v>
+        <v>13.07150809953809</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[11.672658469611907, 14.451120543428612]</t>
+          <t>[11.65470120544082, 14.488314993635367]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.19375375375397</v>
+        <v>4.574414414414449</v>
       </c>
       <c r="X3" t="n">
-        <v>16.0505105105107</v>
+        <v>2.726166166166188</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.33699699699724</v>
+        <v>6.422662662662709</v>
       </c>
     </row>
   </sheetData>
